--- a/UDM.Insurance.Interface/Templates/ReportTemplateFallOffReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateFallOffReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\udminsure\UDM.Insurance.Interface\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MbuleloD\source\repos\Insure\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417455B6-9F90-4B97-88AA-86B20FB99A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2452B7-A1B7-4CF7-9562-ACBE6E193D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampaignOLD" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>Confirmation</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Batch Number</t>
+  </si>
+  <si>
+    <t>Debi-check Cancellations</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,6 +252,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -374,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -444,9 +453,6 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,6 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,6 +490,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,6 +542,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -876,7 +892,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,49 +1041,55 @@
     <col min="20" max="20" width="9.140625" style="23"/>
     <col min="21" max="21" width="9.140625" style="5"/>
     <col min="22" max="22" width="11" style="3" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="45" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="40" t="s">
+      <c r="U1" s="50"/>
+      <c r="V1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="40"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="38"/>
     </row>
-    <row r="2" spans="1:23" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1125,7 +1147,7 @@
       <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="U2" s="24" t="s">
@@ -1137,40 +1159,50 @@
       <c r="W2" s="20" t="s">
         <v>2</v>
       </c>
+      <c r="X2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="27"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="28"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="L4" s="23"/>
       <c r="N4" s="23"/>
       <c r="P4" s="23"/>
       <c r="R4" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="V1:W1"/>
@@ -1209,18 +1241,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1282,7 +1314,7 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1301,19 +1333,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">

--- a/UDM.Insurance.Interface/Templates/ReportTemplateFallOffReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateFallOffReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MbuleloD\source\repos\Insure\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2452B7-A1B7-4CF7-9562-ACBE6E193D11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB7661-D910-4395-A363-131DBC3698EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CancellationsDatasheet" sheetId="3" r:id="rId3"/>
     <sheet name="CarriedForwardDatasheet" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -463,6 +463,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,12 +548,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -915,34 +915,34 @@
     <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36" t="s">
+      <c r="O1" s="37"/>
+      <c r="P1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,57 +1037,58 @@
     <col min="8" max="8" width="11.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="5"/>
     <col min="10" max="10" width="11.42578125" style="3" customWidth="1"/>
-    <col min="11" max="19" width="9.140625" style="5"/>
-    <col min="20" max="20" width="9.140625" style="23"/>
-    <col min="21" max="21" width="9.140625" style="5"/>
-    <col min="22" max="22" width="11" style="3" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="21" width="9.140625" style="5"/>
+    <col min="22" max="22" width="9.140625" style="23"/>
+    <col min="23" max="23" width="9.140625" style="5"/>
+    <col min="24" max="24" width="11" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
-        <v>9</v>
       </c>
       <c r="O1" s="45"/>
       <c r="P1" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49" t="s">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="50"/>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="52"/>
+      <c r="X1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="38"/>
+      <c r="Y1" s="43"/>
     </row>
     <row r="2" spans="1:26" s="17" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1123,10 +1124,10 @@
       <c r="K2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="21" t="s">
@@ -1142,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" s="22" t="s">
         <v>2</v>
@@ -1150,13 +1151,13 @@
       <c r="T2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="20" t="s">
+      <c r="U2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="X2" s="19" t="s">
@@ -1178,8 +1179,8 @@
       <c r="I3" s="26"/>
       <c r="J3" s="25"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="26"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="27"/>
       <c r="O3" s="26"/>
       <c r="P3" s="27"/>
@@ -1188,28 +1189,28 @@
       <c r="S3" s="26"/>
       <c r="T3" s="27"/>
       <c r="U3" s="26"/>
-      <c r="V3" s="25"/>
+      <c r="V3" s="27"/>
       <c r="W3" s="26"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="56"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="26"/>
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L4" s="23"/>
       <c r="N4" s="23"/>
       <c r="P4" s="23"/>
       <c r="R4" s="23"/>
+      <c r="T4" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1241,18 +1242,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -1333,19 +1334,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">

--- a/UDM.Insurance.Interface/Templates/ReportTemplateFallOffReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateFallOffReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MbuleloD\source\repos\Insure\UDM.Insurance.Interface\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaneB\source\repos\Insure\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB7661-D910-4395-A363-131DBC3698EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BE19DB-536E-4E76-858A-5AC06AB0713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1185" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CampaignOLD" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
   <si>
     <t>Confirmation</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Debi-check Cancellations</t>
+  </si>
+  <si>
+    <t>Lead Batch Number</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +551,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1222,10 +1228,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,11 +1243,11 @@
     <col min="5" max="5" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" customWidth="1"/>
-    <col min="8" max="9" width="32.42578125" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
+    <col min="8" max="10" width="32.42578125" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="53" t="s">
         <v>17</v>
       </c>
@@ -1253,9 +1259,10 @@
       <c r="G1" s="54"/>
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -1286,8 +1293,11 @@
       <c r="J3" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="K3" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="14"/>
@@ -1298,13 +1308,14 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
+      <c r="K4" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
